--- a/airbnb/urls.xlsx
+++ b/airbnb/urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M S I\Documents\GitHub\ranking_automation\ranking_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mujabmuneeb/Documents/ranking_automation/airbnb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC909C-FEFB-4E7A-8335-8EFD9CCFB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076FAE5-2293-D64C-9E2D-02DC2241D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,14 @@
     <t>Hollywood, FL</t>
   </si>
   <si>
-    <t>Stunning Villa w/Gameroom HotTub, Pool Near Beach</t>
+    <t>Top Villa w/Game room HotTub &amp; HTD Pool Near Beach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,7 +75,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,7 +83,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -116,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -396,18 +406,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="61.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,21 +431,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
